--- a/data/trans_camb/P57_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57_R2-Provincia-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-15.38111472736471</v>
+        <v>-15.89446512949981</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-13.69099949818012</v>
+        <v>-13.29353419040588</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-12.57065111738479</v>
+        <v>-12.31791261917526</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.1305525871014236</v>
+        <v>0.07994516056896211</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.341370292383793</v>
+        <v>0.4851256856451389</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-2.88267439246842</v>
+        <v>-2.682597564712997</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4421567222779797</v>
+        <v>-0.4531503733181569</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4668934900219972</v>
+        <v>-0.46342928412857</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3996067404798572</v>
+        <v>-0.3959953010604805</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.01433212867475556</v>
+        <v>0.003658908948745929</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.01565956499900276</v>
+        <v>0.0211647761445996</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1106462998507436</v>
+        <v>-0.09866889279635332</v>
       </c>
     </row>
     <row r="10">
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>38.04501498512359</v>
+        <v>38.04501498512358</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>36.25309879840651</v>
+        <v>36.2530987984065</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>37.15412648165834</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>31.6091166062229</v>
+        <v>31.49804908558968</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>30.46744380828765</v>
+        <v>30.42908099116557</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32.74907932355388</v>
+        <v>33.0306816704233</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>44.19520884167788</v>
+        <v>44.60952671762383</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>41.21973672300162</v>
+        <v>41.03886871255532</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41.49905809050463</v>
+        <v>41.78902736256747</v>
       </c>
     </row>
     <row r="13">
@@ -724,7 +724,7 @@
         <v>1.087554297629767</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>1.132083894004517</v>
+        <v>1.132083894004516</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>1.110034479586208</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.8360325293297783</v>
+        <v>0.8250485713810218</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.8611658821906939</v>
+        <v>0.8674522635540056</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.9054233643062948</v>
+        <v>0.9239318938894843</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.438131717935348</v>
+        <v>1.376853882237342</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.447434777618879</v>
+        <v>1.457179372219251</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.329500432844567</v>
+        <v>1.339943780703158</v>
       </c>
     </row>
     <row r="16">
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>16.864130951798</v>
+        <v>16.86413095179801</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>10.15745537909595</v>
+        <v>10.15745537909594</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>13.28011342548381</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>9.600139143975486</v>
+        <v>8.655144692813794</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.553075618458095</v>
+        <v>3.247637767007657</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.30721262579319</v>
+        <v>7.931855708570179</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>24.94178006272842</v>
+        <v>24.49975352309198</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.18884908879003</v>
+        <v>16.36696916862935</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.8706427053272</v>
+        <v>17.96043857274493</v>
       </c>
     </row>
     <row r="19">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0.5524824027016533</v>
+        <v>0.5524824027016537</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.3528935300831383</v>
+        <v>0.352893530083138</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.4482126564754624</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2769882665563673</v>
+        <v>0.2389941081471269</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1049362331312458</v>
+        <v>0.09753550569747538</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2531040147434961</v>
+        <v>0.2411059039324225</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9196058227856249</v>
+        <v>0.8979501862055719</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6951559722735339</v>
+        <v>0.6515505168269299</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6618107480545891</v>
+        <v>0.6538764932657675</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.657875022818905</v>
+        <v>-6.842513655497134</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.852261874951229</v>
+        <v>-0.4461401248536052</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.784263984436301</v>
+        <v>-1.401874948434193</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.41207749098251</v>
+        <v>10.82293100341598</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.34813507480126</v>
+        <v>13.35043821277351</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.358326218840235</v>
+        <v>9.159547490275354</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1513939211721428</v>
+        <v>-0.160757433391521</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02327317156936671</v>
+        <v>-0.01748531976251881</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.04763692824859143</v>
+        <v>-0.03586110925585958</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2786584035064893</v>
+        <v>0.2897734144565945</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4250361797168669</v>
+        <v>0.4167743659697383</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2648039527939643</v>
+        <v>0.2642416273544555</v>
       </c>
     </row>
     <row r="28">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>18.14780627390025</v>
+        <v>17.21403679354854</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>16.83816972880959</v>
+        <v>18.37956756201112</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19.15553350500137</v>
+        <v>19.44532212075358</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>33.2682800577713</v>
+        <v>33.66249650979445</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>29.66720378355464</v>
+        <v>30.62378769890602</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>29.20910400874858</v>
+        <v>29.30835776414558</v>
       </c>
     </row>
     <row r="31">
@@ -1045,7 +1045,7 @@
         <v>2.034807197595232</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1.806281364936688</v>
+        <v>1.806281364936689</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.9409741377267741</v>
+        <v>0.8881627268297457</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>1.078660192376858</v>
+        <v>1.106295166289162</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>1.154305356082015</v>
+        <v>1.219614666661066</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.998478943919645</v>
+        <v>2.792106312751571</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.512628726957813</v>
+        <v>3.634270630642578</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.581960378962881</v>
+        <v>2.784371056454036</v>
       </c>
     </row>
     <row r="34">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>-2.073325783150171</v>
+        <v>-2.073325783150159</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>6.753130332240981</v>
+        <v>6.753130332240959</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2.378115242178519</v>
+        <v>2.37811524217853</v>
       </c>
     </row>
     <row r="35">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-10.60437181878424</v>
+        <v>-10.17298045050877</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.7935566873269142</v>
+        <v>-1.33612521954291</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.4644261863839</v>
+        <v>-3.467863541544875</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.954608700643481</v>
+        <v>6.076911014200991</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>13.93713901739694</v>
+        <v>14.17274224609742</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8.067911444219412</v>
+        <v>8.332625791012639</v>
       </c>
     </row>
     <row r="37">
@@ -1145,13 +1145,13 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>-0.04045130518261215</v>
+        <v>-0.04045130518261194</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.1507717015484387</v>
+        <v>0.1507717015484382</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.04957674759457514</v>
+        <v>0.04957674759457537</v>
       </c>
     </row>
     <row r="38">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1887287217242186</v>
+        <v>-0.186969820739374</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.01961037576941613</v>
+        <v>-0.02208857321792791</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.06881657689690628</v>
+        <v>-0.06885267466658349</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1524171718676338</v>
+        <v>0.1339343971923697</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3489759944733758</v>
+        <v>0.3507221442069782</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.1802223909064777</v>
+        <v>0.1856888693037317</v>
       </c>
     </row>
     <row r="40">
@@ -1203,7 +1203,7 @@
         <v>14.76590915384482</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>13.49386309074119</v>
+        <v>13.49386309074118</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>14.08921443156388</v>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>9.131621032026192</v>
+        <v>8.837658804738183</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>8.496444559487141</v>
+        <v>8.586331312335128</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>10.0657752425402</v>
+        <v>10.25776732648871</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>20.7292029875669</v>
+        <v>20.27248986632118</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>17.97519326118497</v>
+        <v>18.34082582874586</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>17.91064467465633</v>
+        <v>18.00685810635606</v>
       </c>
     </row>
     <row r="43">
@@ -1254,7 +1254,7 @@
         <v>0.5019292887939725</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.5194869694844687</v>
+        <v>0.5194869694844683</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>0.5094356683361831</v>
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.275695400545564</v>
+        <v>0.2891434548754658</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2970460523668306</v>
+        <v>0.3039405192541852</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.339632975544219</v>
+        <v>0.344806753304735</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7763395303479834</v>
+        <v>0.7881594433563091</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7471696848952349</v>
+        <v>0.7875862568213962</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.6954254927805499</v>
+        <v>0.6806875728570255</v>
       </c>
     </row>
     <row r="46">
@@ -1306,13 +1306,13 @@
         </is>
       </c>
       <c r="C46" s="5" t="n">
-        <v>21.89940077949612</v>
+        <v>21.89940077949611</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>17.15656932876466</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>19.49816726518072</v>
+        <v>19.4981672651807</v>
       </c>
     </row>
     <row r="47">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>17.53984197239944</v>
+        <v>17.49036550737675</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>13.28786700465253</v>
+        <v>13.20963983722522</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>15.97306887770683</v>
+        <v>16.2269633921391</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>26.97573640663187</v>
+        <v>26.84118490090257</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>21.25344042225622</v>
+        <v>21.17700928988457</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>22.43965469093638</v>
+        <v>22.66905483253142</v>
       </c>
     </row>
     <row r="49">
@@ -1357,13 +1357,13 @@
         </is>
       </c>
       <c r="C49" s="6" t="n">
-        <v>1.095637557520657</v>
+        <v>1.095637557520656</v>
       </c>
       <c r="D49" s="6" t="n">
         <v>1.067455742999979</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>1.084771861774358</v>
+        <v>1.084771861774357</v>
       </c>
     </row>
     <row r="50">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.8112103468851336</v>
+        <v>0.7828628891073633</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.7380415877657481</v>
+        <v>0.7230854519296135</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.7978979076112105</v>
+        <v>0.8424071796853319</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.535262343622317</v>
+        <v>1.498730288758987</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.495160584888019</v>
+        <v>1.497628707051963</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.351841139745943</v>
+        <v>1.383256346385066</v>
       </c>
     </row>
     <row r="52">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="C52" s="5" t="n">
-        <v>16.05347422088062</v>
+        <v>16.0534742208806</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>14.91511825600026</v>
@@ -1429,13 +1429,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>13.44133970799707</v>
+        <v>13.61512081200165</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>12.65741325714289</v>
+        <v>12.77395667452096</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>13.9347202233823</v>
+        <v>13.82358547539439</v>
       </c>
     </row>
     <row r="54">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>18.78356593257003</v>
+        <v>18.67452703176223</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>16.97272169684705</v>
+        <v>17.02303437018982</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>17.0613116743374</v>
+        <v>17.11422100267681</v>
       </c>
     </row>
     <row r="55">
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="C55" s="6" t="n">
-        <v>0.5288705587664612</v>
+        <v>0.5288705587664608</v>
       </c>
       <c r="D55" s="6" t="n">
         <v>0.5666071980854613</v>
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.4289205510725951</v>
+        <v>0.4357582958855894</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.4621851561032079</v>
+        <v>0.4625904696264023</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.4791128949666152</v>
+        <v>0.4726990176495687</v>
       </c>
     </row>
     <row r="57">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.644000853028837</v>
+        <v>0.6422250460749444</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.6686215131641751</v>
+        <v>0.6722390420619333</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.6204193855467639</v>
+        <v>0.6236056541259014</v>
       </c>
     </row>
     <row r="58">
